--- a/Excel/pinyin_square_block.xlsx
+++ b/Excel/pinyin_square_block.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Github\python\pinyin_print\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\GitHub\python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1135F2F6-EE9C-456B-A580-1F1B49A626C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="10995"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="13830" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pinyin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -520,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
@@ -2254,4 +2255,10 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.62992125984251968" bottom="0.62992125984251968" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>